--- a/07_calc_country_stats/03_total_c_stats/02_combine_tile_stats/glb_total_c_hist.xlsx
+++ b/07_calc_country_stats/03_total_c_stats/02_combine_tile_stats/glb_total_c_hist.xlsx
@@ -1590,313 +1590,313 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9872</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>119350</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>305833</v>
+        <v>194</v>
       </c>
       <c r="E2">
-        <v>782546</v>
+        <v>19656</v>
       </c>
       <c r="F2">
-        <v>1694374</v>
+        <v>725643</v>
       </c>
       <c r="G2">
-        <v>3094952</v>
+        <v>2308521</v>
       </c>
       <c r="H2">
-        <v>5334947</v>
+        <v>2051256</v>
       </c>
       <c r="I2">
-        <v>7725942</v>
+        <v>2347247</v>
       </c>
       <c r="J2">
-        <v>8728236</v>
+        <v>3688783</v>
       </c>
       <c r="K2">
-        <v>9077035</v>
+        <v>6110081</v>
       </c>
       <c r="L2">
-        <v>8801851</v>
+        <v>9092509</v>
       </c>
       <c r="M2">
-        <v>8376446</v>
+        <v>10461904</v>
       </c>
       <c r="N2">
-        <v>8380264</v>
+        <v>11342573</v>
       </c>
       <c r="O2">
-        <v>8847628</v>
+        <v>10015037</v>
       </c>
       <c r="P2">
-        <v>9414263</v>
+        <v>8637418</v>
       </c>
       <c r="Q2">
-        <v>10208700</v>
+        <v>7490592</v>
       </c>
       <c r="R2">
-        <v>10509705</v>
+        <v>8149503</v>
       </c>
       <c r="S2">
-        <v>10366928</v>
+        <v>7829626</v>
       </c>
       <c r="T2">
-        <v>9411539</v>
+        <v>7690123</v>
       </c>
       <c r="U2">
-        <v>7867780</v>
+        <v>8583259</v>
       </c>
       <c r="V2">
-        <v>6454522</v>
+        <v>9283974</v>
       </c>
       <c r="W2">
-        <v>5142173</v>
+        <v>8778716</v>
       </c>
       <c r="X2">
-        <v>4102569</v>
+        <v>7894201</v>
       </c>
       <c r="Y2">
-        <v>3104505</v>
+        <v>7826802</v>
       </c>
       <c r="Z2">
-        <v>2385458</v>
+        <v>5802677</v>
       </c>
       <c r="AA2">
-        <v>1808371</v>
+        <v>4424466</v>
       </c>
       <c r="AB2">
-        <v>1376132</v>
+        <v>3120583</v>
       </c>
       <c r="AC2">
-        <v>1037612</v>
+        <v>1859585</v>
       </c>
       <c r="AD2">
-        <v>779639</v>
+        <v>1016343</v>
       </c>
       <c r="AE2">
-        <v>582971</v>
+        <v>500579</v>
       </c>
       <c r="AF2">
-        <v>432595</v>
+        <v>225585</v>
       </c>
       <c r="AG2">
-        <v>321918</v>
+        <v>105689</v>
       </c>
       <c r="AH2">
-        <v>239072</v>
+        <v>67052</v>
       </c>
       <c r="AI2">
-        <v>178007</v>
+        <v>40890</v>
       </c>
       <c r="AJ2">
-        <v>133437</v>
+        <v>15799</v>
       </c>
       <c r="AK2">
-        <v>99701</v>
+        <v>4589</v>
       </c>
       <c r="AL2">
-        <v>75484</v>
+        <v>1658</v>
       </c>
       <c r="AM2">
-        <v>56462</v>
+        <v>491</v>
       </c>
       <c r="AN2">
-        <v>41907</v>
+        <v>150</v>
       </c>
       <c r="AO2">
-        <v>31065</v>
+        <v>46</v>
       </c>
       <c r="AP2">
-        <v>22138</v>
+        <v>5</v>
       </c>
       <c r="AQ2">
-        <v>15583</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>10946</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>7770</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>5171</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>3582</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>2373</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>1563</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>995</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>610</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR2">
         <v>0</v>
       </c>
       <c r="CS2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CT2">
         <v>0</v>
       </c>
       <c r="CU2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DA2">
         <v>0</v>
@@ -1905,43 +1905,43 @@
         <v>0</v>
       </c>
       <c r="DC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE2">
         <v>0</v>
       </c>
       <c r="DF2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH2">
         <v>0</v>
       </c>
       <c r="DI2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DK2">
         <v>0</v>
       </c>
       <c r="DL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP2">
         <v>0</v>
@@ -1950,40 +1950,40 @@
         <v>0</v>
       </c>
       <c r="DR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV2">
         <v>0</v>
       </c>
       <c r="DW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX2">
         <v>0</v>
       </c>
       <c r="DY2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
         <v>0</v>
       </c>
       <c r="EA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB2">
         <v>0</v>
       </c>
       <c r="EC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED2">
         <v>0</v>
@@ -1995,13 +1995,13 @@
         <v>0</v>
       </c>
       <c r="EG2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EH2">
         <v>0</v>
       </c>
       <c r="EI2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="EN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO2">
         <v>0</v>
@@ -2025,13 +2025,13 @@
         <v>0</v>
       </c>
       <c r="EQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER2">
         <v>0</v>
       </c>
       <c r="ES2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET2">
         <v>0</v>
@@ -2040,13 +2040,13 @@
         <v>0</v>
       </c>
       <c r="EV2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EW2">
         <v>0</v>
       </c>
       <c r="EX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY2">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="FB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FE2">
         <v>0</v>
@@ -2088,10 +2088,10 @@
         <v>0</v>
       </c>
       <c r="FL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN2">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="FW2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FX2">
         <v>0</v>
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="GC2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GD2">
         <v>0</v>
@@ -2148,13 +2148,13 @@
         <v>0</v>
       </c>
       <c r="GF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GI2">
         <v>0</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="GS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>

--- a/07_calc_country_stats/03_total_c_stats/02_combine_tile_stats/glb_total_c_hist.xlsx
+++ b/07_calc_country_stats/03_total_c_stats/02_combine_tile_stats/glb_total_c_hist.xlsx
@@ -1593,121 +1593,121 @@
         <v>27</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E2">
-        <v>19656</v>
+        <v>21527</v>
       </c>
       <c r="F2">
-        <v>725643</v>
+        <v>751926</v>
       </c>
       <c r="G2">
-        <v>2308521</v>
+        <v>2390803</v>
       </c>
       <c r="H2">
-        <v>2051256</v>
+        <v>1968011</v>
       </c>
       <c r="I2">
-        <v>2347247</v>
+        <v>2358895</v>
       </c>
       <c r="J2">
-        <v>3688783</v>
+        <v>3719569</v>
       </c>
       <c r="K2">
-        <v>6110081</v>
+        <v>6156445</v>
       </c>
       <c r="L2">
-        <v>9092509</v>
+        <v>9174635</v>
       </c>
       <c r="M2">
-        <v>10461904</v>
+        <v>10463968</v>
       </c>
       <c r="N2">
-        <v>11342573</v>
+        <v>11342819</v>
       </c>
       <c r="O2">
-        <v>10015037</v>
+        <v>10024836</v>
       </c>
       <c r="P2">
-        <v>8637418</v>
+        <v>8602668</v>
       </c>
       <c r="Q2">
-        <v>7490592</v>
+        <v>7463163</v>
       </c>
       <c r="R2">
-        <v>8149503</v>
+        <v>8142096</v>
       </c>
       <c r="S2">
-        <v>7829626</v>
+        <v>7829014</v>
       </c>
       <c r="T2">
-        <v>7690123</v>
+        <v>7723568</v>
       </c>
       <c r="U2">
-        <v>8583259</v>
+        <v>8568763</v>
       </c>
       <c r="V2">
-        <v>9283974</v>
+        <v>9302383</v>
       </c>
       <c r="W2">
-        <v>8778716</v>
+        <v>8766615</v>
       </c>
       <c r="X2">
-        <v>7894201</v>
+        <v>7936589</v>
       </c>
       <c r="Y2">
-        <v>7826802</v>
+        <v>7730442</v>
       </c>
       <c r="Z2">
-        <v>5802677</v>
+        <v>5776685</v>
       </c>
       <c r="AA2">
-        <v>4424466</v>
+        <v>4401692</v>
       </c>
       <c r="AB2">
-        <v>3120583</v>
+        <v>3101886</v>
       </c>
       <c r="AC2">
-        <v>1859585</v>
+        <v>1841453</v>
       </c>
       <c r="AD2">
-        <v>1016343</v>
+        <v>1005191</v>
       </c>
       <c r="AE2">
-        <v>500579</v>
+        <v>492742</v>
       </c>
       <c r="AF2">
-        <v>225585</v>
+        <v>222080</v>
       </c>
       <c r="AG2">
-        <v>105689</v>
+        <v>104512</v>
       </c>
       <c r="AH2">
-        <v>67052</v>
+        <v>66768</v>
       </c>
       <c r="AI2">
-        <v>40890</v>
+        <v>40040</v>
       </c>
       <c r="AJ2">
-        <v>15799</v>
+        <v>15073</v>
       </c>
       <c r="AK2">
-        <v>4589</v>
+        <v>4456</v>
       </c>
       <c r="AL2">
-        <v>1658</v>
+        <v>1608</v>
       </c>
       <c r="AM2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="AN2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AO2">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AP2">
         <v>5</v>

--- a/07_calc_country_stats/03_total_c_stats/02_combine_tile_stats/glb_total_c_hist.xlsx
+++ b/07_calc_country_stats/03_total_c_stats/02_combine_tile_stats/glb_total_c_hist.xlsx
@@ -1590,229 +1590,229 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>9330</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>43745</v>
       </c>
       <c r="D2">
-        <v>203</v>
+        <v>145333</v>
       </c>
       <c r="E2">
-        <v>21527</v>
+        <v>459256</v>
       </c>
       <c r="F2">
-        <v>751926</v>
+        <v>1012087</v>
       </c>
       <c r="G2">
-        <v>2390803</v>
+        <v>3171657</v>
       </c>
       <c r="H2">
-        <v>1968011</v>
+        <v>5639978</v>
       </c>
       <c r="I2">
-        <v>2358895</v>
+        <v>7236739</v>
       </c>
       <c r="J2">
-        <v>3719569</v>
+        <v>9072800</v>
       </c>
       <c r="K2">
-        <v>6156445</v>
+        <v>11176694</v>
       </c>
       <c r="L2">
-        <v>9174635</v>
+        <v>12473333</v>
       </c>
       <c r="M2">
-        <v>10463968</v>
+        <v>13519250</v>
       </c>
       <c r="N2">
-        <v>11342819</v>
+        <v>13697599</v>
       </c>
       <c r="O2">
-        <v>10024836</v>
+        <v>13265670</v>
       </c>
       <c r="P2">
-        <v>8602668</v>
+        <v>12480389</v>
       </c>
       <c r="Q2">
-        <v>7463163</v>
+        <v>11837745</v>
       </c>
       <c r="R2">
-        <v>8142096</v>
+        <v>10707021</v>
       </c>
       <c r="S2">
-        <v>7829014</v>
+        <v>9132925</v>
       </c>
       <c r="T2">
-        <v>7723568</v>
+        <v>7356319</v>
       </c>
       <c r="U2">
-        <v>8568763</v>
+        <v>5465186</v>
       </c>
       <c r="V2">
-        <v>9302383</v>
+        <v>3770534</v>
       </c>
       <c r="W2">
-        <v>8766615</v>
+        <v>2401828</v>
       </c>
       <c r="X2">
-        <v>7936589</v>
+        <v>1461814</v>
       </c>
       <c r="Y2">
-        <v>7730442</v>
+        <v>848945</v>
       </c>
       <c r="Z2">
-        <v>5776685</v>
+        <v>486458</v>
       </c>
       <c r="AA2">
-        <v>4401692</v>
+        <v>273661</v>
       </c>
       <c r="AB2">
-        <v>3101886</v>
+        <v>153488</v>
       </c>
       <c r="AC2">
-        <v>1841453</v>
+        <v>89434</v>
       </c>
       <c r="AD2">
-        <v>1005191</v>
+        <v>50466</v>
       </c>
       <c r="AE2">
-        <v>492742</v>
+        <v>29983</v>
       </c>
       <c r="AF2">
-        <v>222080</v>
+        <v>17758</v>
       </c>
       <c r="AG2">
-        <v>104512</v>
+        <v>10543</v>
       </c>
       <c r="AH2">
-        <v>66768</v>
+        <v>6309</v>
       </c>
       <c r="AI2">
-        <v>40040</v>
+        <v>3730</v>
       </c>
       <c r="AJ2">
-        <v>15073</v>
+        <v>2243</v>
       </c>
       <c r="AK2">
-        <v>4456</v>
+        <v>1318</v>
       </c>
       <c r="AL2">
-        <v>1608</v>
+        <v>773</v>
       </c>
       <c r="AM2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN2">
-        <v>147</v>
+        <v>318</v>
       </c>
       <c r="AO2">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="AP2">
+        <v>104</v>
+      </c>
+      <c r="AQ2">
+        <v>85</v>
+      </c>
+      <c r="AR2">
+        <v>46</v>
+      </c>
+      <c r="AS2">
+        <v>35</v>
+      </c>
+      <c r="AT2">
+        <v>33</v>
+      </c>
+      <c r="AU2">
+        <v>29</v>
+      </c>
+      <c r="AV2">
+        <v>25</v>
+      </c>
+      <c r="AW2">
+        <v>20</v>
+      </c>
+      <c r="AX2">
+        <v>23</v>
+      </c>
+      <c r="AY2">
+        <v>16</v>
+      </c>
+      <c r="AZ2">
+        <v>9</v>
+      </c>
+      <c r="BA2">
+        <v>9</v>
+      </c>
+      <c r="BB2">
         <v>5</v>
       </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
       <c r="BC2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BF2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM2">
         <v>0</v>
       </c>
       <c r="BN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BV2">
         <v>0</v>
       </c>
       <c r="BW2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY2">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="CB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC2">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="CE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF2">
         <v>0</v>
